--- a/DataTables/Datas/Manga.xlsx
+++ b/DataTables/Datas/Manga.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\MyProject\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E47329-370F-4F58-B3DC-0D0494459B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12525904-1AB9-4E66-B484-3722104BB9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="3" r:id="rId1"/>
     <sheet name="Node" sheetId="4" r:id="rId2"/>
-    <sheet name="Item" sheetId="5" r:id="rId3"/>
+    <sheet name="Page" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="192">
   <si>
     <t>ID</t>
   </si>
@@ -185,27 +185,6 @@
   </si>
   <si>
     <t>条件参数2</t>
-  </si>
-  <si>
-    <t>角色2漫画2小节2描述</t>
-  </si>
-  <si>
-    <t>角色2漫画2小节2</t>
-  </si>
-  <si>
-    <t>1_2</t>
-  </si>
-  <si>
-    <t>1_2_2</t>
-  </si>
-  <si>
-    <t>角色2漫画1小节1描述</t>
-  </si>
-  <si>
-    <t>角色2漫画1小节1</t>
-  </si>
-  <si>
-    <t>1_2_1</t>
   </si>
   <si>
     <t>角色1漫画1小节2描述</t>
@@ -429,67 +408,6 @@
     <t>1_1_1_20</t>
   </si>
   <si>
-    <t>Texture/page1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texture/page13.png</t>
-  </si>
-  <si>
-    <t>Texture/page14.png</t>
-  </si>
-  <si>
-    <t>Texture/page15.png</t>
-  </si>
-  <si>
-    <t>Texture/page16.png</t>
-  </si>
-  <si>
-    <t>Texture/page17.png</t>
-  </si>
-  <si>
-    <t>Texture/page18.png</t>
-  </si>
-  <si>
-    <t>Texture/page19.png</t>
-  </si>
-  <si>
-    <t>Texture/page20.png</t>
-  </si>
-  <si>
-    <t>Texture/page2.png</t>
-  </si>
-  <si>
-    <t>Texture/page3.png</t>
-  </si>
-  <si>
-    <t>Texture/page4.png</t>
-  </si>
-  <si>
-    <t>Texture/page5.png</t>
-  </si>
-  <si>
-    <t>Texture/page6.png</t>
-  </si>
-  <si>
-    <t>Texture/page7.png</t>
-  </si>
-  <si>
-    <t>Texture/page8.png</t>
-  </si>
-  <si>
-    <t>Texture/page9.png</t>
-  </si>
-  <si>
-    <t>Texture/page10.png</t>
-  </si>
-  <si>
-    <t>Texture/page11.png</t>
-  </si>
-  <si>
-    <t>Texture/page12.png</t>
-  </si>
-  <si>
     <t>选项1,选项2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -556,14 +474,6 @@
   </si>
   <si>
     <t>1_1_2_9</t>
-  </si>
-  <si>
-    <t>1,20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -598,56 +508,218 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Texture/page10.png</t>
+    <t>Sprite/Icon1.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon2.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色2漫画副本2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色3漫画副本2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_3</t>
+  </si>
+  <si>
+    <t>角色1漫画1小节3描述</t>
+  </si>
+  <si>
+    <t>角色1漫画1小节3描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色1漫画1小节3</t>
+  </si>
+  <si>
+    <t>Sprite/Icon3.png</t>
+  </si>
+  <si>
+    <t>1_1_3_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_3_2</t>
+  </si>
+  <si>
+    <t>1_1_3_3</t>
+  </si>
+  <si>
+    <t>1_1_3_4</t>
+  </si>
+  <si>
+    <t>1_1_3_5</t>
+  </si>
+  <si>
+    <t>1_1_3_6</t>
+  </si>
+  <si>
+    <t>1_1_3_7</t>
+  </si>
+  <si>
+    <t>1_1_3_8</t>
+  </si>
+  <si>
+    <t>1_1_3_9</t>
+  </si>
+  <si>
+    <t>1_1_3_10</t>
+  </si>
+  <si>
+    <t>1_1_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_1_21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用结束尾页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_2_11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用结束尾页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_3_11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PageRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Icon1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Icon2.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色2漫画副本2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色3漫画副本2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫画的起始页,末尾页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=,),int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=,),string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page1</t>
+  </si>
+  <si>
+    <t>Texture/page1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page2</t>
+  </si>
+  <si>
+    <t>Texture/page2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page3</t>
+  </si>
+  <si>
+    <t>Texture/page4</t>
+  </si>
+  <si>
+    <t>Texture/page5</t>
+  </si>
+  <si>
+    <t>Texture/page6</t>
+  </si>
+  <si>
+    <t>Texture/page7</t>
+  </si>
+  <si>
+    <t>Texture/page8</t>
+  </si>
+  <si>
+    <t>Texture/page9</t>
+  </si>
+  <si>
+    <t>Texture/page10</t>
+  </si>
+  <si>
+    <t>Texture/page11</t>
+  </si>
+  <si>
+    <t>Texture/page12</t>
+  </si>
+  <si>
+    <t>Texture/page13</t>
+  </si>
+  <si>
+    <t>Texture/page14</t>
+  </si>
+  <si>
+    <t>Texture/page15</t>
+  </si>
+  <si>
+    <t>Texture/page16</t>
+  </si>
+  <si>
+    <t>Texture/page17</t>
+  </si>
+  <si>
+    <t>Texture/page18</t>
+  </si>
+  <si>
+    <t>Texture/page19</t>
+  </si>
+  <si>
+    <t>Texture/page20</t>
   </si>
 </sst>
 </file>
@@ -741,7 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -847,6 +919,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E0638C-371B-4F96-A326-A07E9B93AACD}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1231,13 +1306,13 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -1280,7 +1355,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -1407,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -1463,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
@@ -1486,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EA9C67-D7B9-4065-A796-176DFD320906}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:P2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1518,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>8</v>
@@ -1530,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>32</v>
@@ -1548,7 +1623,7 @@
         <v>36</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>26</v>
@@ -1583,7 +1658,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>3</v>
@@ -1598,16 +1673,16 @@
         <v>3</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
@@ -1648,7 +1723,7 @@
         <v>23</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>23</v>
@@ -1665,13 +1740,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>38</v>
@@ -1698,7 +1773,7 @@
         <v>45</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>46</v>
@@ -1713,31 +1788,31 @@
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="I5" s="9">
         <v>10</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="K5" s="8">
         <v>1</v>
@@ -1746,37 +1821,37 @@
         <v>1</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="I6" s="9">
         <v>15</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="K6" s="8">
         <v>2</v>
@@ -1785,82 +1860,47 @@
         <v>1</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="9">
+        <v>15</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3</v>
+      </c>
+      <c r="L7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="I7" s="16">
-        <v>20</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="K7" s="16">
-        <v>1</v>
-      </c>
-      <c r="L7" s="16">
-        <v>1</v>
-      </c>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="16">
-        <v>2</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" s="16">
-        <v>10</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="K8" s="16">
-        <v>2</v>
-      </c>
-      <c r="L8" s="16">
-        <v>1</v>
-      </c>
-      <c r="M8" s="16"/>
+      <c r="M7" s="8" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1870,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D702866-1419-4D9D-9483-A098B7763352}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1882,14 +1922,15 @@
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1897,34 +1938,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1944,22 +1988,25 @@
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1979,7 +2026,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>6</v>
@@ -1988,726 +2035,1065 @@
         <v>6</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>97</v>
+        <v>72</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K5" s="9"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K6" s="9"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D7" s="8">
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="9">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D8" s="8">
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D9" s="8">
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D10" s="8">
         <v>6</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="9">
+        <v>177</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="I10" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J10" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D11" s="8">
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D12" s="8">
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="9">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D13" s="8">
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D14" s="8">
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D15" s="8">
         <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="9">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9">
         <v>17</v>
       </c>
-      <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D16" s="8">
         <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8">
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8">
         <v>14</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="9">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8">
         <v>15</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8">
         <v>16</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="9">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9">
         <v>17</v>
       </c>
-      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D21" s="8">
         <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D22" s="8">
         <v>18</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D23" s="8">
         <v>19</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D24" s="8">
         <v>20</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="8">
+        <v>21</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="12">
+      <c r="F25" s="8"/>
+      <c r="G25" s="9">
         <v>1</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D26" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K26" s="13"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D27" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D28" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="13">
-        <v>2</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="13">
-        <v>1</v>
-      </c>
+      <c r="J28" s="13"/>
       <c r="K28" s="13"/>
-    </row>
-    <row r="29" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D29" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="H29" s="13">
+        <v>2</v>
+      </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="30" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="K29" s="13">
+        <v>1</v>
+      </c>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D30" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
-    </row>
-    <row r="31" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D31" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
-    </row>
-    <row r="32" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D32" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
-    </row>
-    <row r="33" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D33" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
-    </row>
-    <row r="34" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D34" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="12">
+        <v>10</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="12">
+        <v>11</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13">
+        <v>1</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="16">
+        <v>1</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="16">
+        <v>2</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="16">
+        <v>3</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="16">
+        <v>4</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17">
+        <v>2</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17">
+        <v>1</v>
+      </c>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="16">
+        <v>5</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="16">
+        <v>6</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="16">
+        <v>7</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="16">
+        <v>8</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="16">
+        <v>9</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="16">
+        <v>10</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="16">
+        <v>11</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataTables/Datas/Manga.xlsx
+++ b/DataTables/Datas/Manga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\MyProject\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12525904-1AB9-4E66-B484-3722104BB9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CCD4A9-9E95-4CB8-B79C-532245337B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="203">
   <si>
     <t>ID</t>
   </si>
@@ -655,71 +655,117 @@
   </si>
   <si>
     <t>Texture/page1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page3</t>
+  </si>
+  <si>
+    <t>Texture/page4</t>
+  </si>
+  <si>
+    <t>Texture/page5</t>
+  </si>
+  <si>
+    <t>Texture/page6</t>
+  </si>
+  <si>
+    <t>Texture/page7</t>
+  </si>
+  <si>
+    <t>Texture/page8</t>
+  </si>
+  <si>
+    <t>Texture/page9</t>
+  </si>
+  <si>
+    <t>Texture/page10</t>
+  </si>
+  <si>
+    <t>Texture/page11</t>
+  </si>
+  <si>
+    <t>Texture/page12</t>
+  </si>
+  <si>
+    <t>Texture/page13</t>
+  </si>
+  <si>
+    <t>Texture/page14</t>
+  </si>
+  <si>
+    <t>Texture/page15</t>
+  </si>
+  <si>
+    <t>Texture/page16</t>
+  </si>
+  <si>
+    <t>Texture/page17</t>
+  </si>
+  <si>
+    <t>Texture/page18</t>
+  </si>
+  <si>
+    <t>Texture/page19</t>
+  </si>
+  <si>
+    <t>Texture/page20</t>
+  </si>
+  <si>
+    <t>Texture/page11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/page20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Texture/page1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Texture/page2</t>
-  </si>
-  <si>
-    <t>Texture/page2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Texture/page3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Texture/page4</t>
-  </si>
-  <si>
-    <t>Texture/page5</t>
-  </si>
-  <si>
-    <t>Texture/page6</t>
-  </si>
-  <si>
-    <t>Texture/page7</t>
-  </si>
-  <si>
-    <t>Texture/page8</t>
-  </si>
-  <si>
-    <t>Texture/page9</t>
-  </si>
-  <si>
-    <t>Texture/page10</t>
-  </si>
-  <si>
-    <t>Texture/page11</t>
-  </si>
-  <si>
-    <t>Texture/page12</t>
-  </si>
-  <si>
-    <t>Texture/page13</t>
-  </si>
-  <si>
-    <t>Texture/page14</t>
-  </si>
-  <si>
-    <t>Texture/page15</t>
-  </si>
-  <si>
-    <t>Texture/page16</t>
-  </si>
-  <si>
-    <t>Texture/page17</t>
-  </si>
-  <si>
-    <t>Texture/page18</t>
-  </si>
-  <si>
-    <t>Texture/page19</t>
-  </si>
-  <si>
-    <t>Texture/page20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1913,7 +1959,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2096,7 +2142,7 @@
         <v>73</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -2119,7 +2165,7 @@
         <v>74</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -2142,7 +2188,7 @@
         <v>75</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -2167,7 +2213,7 @@
         <v>76</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2190,7 +2236,7 @@
         <v>81</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -2213,7 +2259,7 @@
         <v>114</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9">
@@ -2242,7 +2288,7 @@
         <v>115</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -2265,7 +2311,7 @@
         <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -2290,7 +2336,7 @@
         <v>88</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -2313,7 +2359,7 @@
         <v>89</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -2336,7 +2382,7 @@
         <v>111</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -2361,7 +2407,7 @@
         <v>112</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -2384,7 +2430,7 @@
         <v>113</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -2407,7 +2453,7 @@
         <v>93</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -2432,7 +2478,7 @@
         <v>94</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -2455,7 +2501,7 @@
         <v>110</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2480,7 +2526,7 @@
         <v>95</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -2503,7 +2549,7 @@
         <v>96</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2526,7 +2572,7 @@
         <v>97</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2549,7 +2595,7 @@
         <v>98</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -2595,7 +2641,7 @@
         <v>73</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -2618,7 +2664,7 @@
         <v>74</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -2641,7 +2687,7 @@
         <v>75</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -2664,7 +2710,7 @@
         <v>76</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13">
@@ -2691,7 +2737,7 @@
         <v>81</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -2714,7 +2760,7 @@
         <v>114</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -2737,7 +2783,7 @@
         <v>108</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -2760,7 +2806,7 @@
         <v>82</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -2783,7 +2829,7 @@
         <v>88</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -2806,7 +2852,7 @@
         <v>129</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -2852,7 +2898,7 @@
         <v>73</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
@@ -2875,7 +2921,7 @@
         <v>74</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
@@ -2898,7 +2944,7 @@
         <v>75</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
@@ -2921,7 +2967,7 @@
         <v>76</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17">
@@ -2948,7 +2994,7 @@
         <v>81</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -2971,7 +3017,7 @@
         <v>114</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -2994,7 +3040,7 @@
         <v>108</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -3017,7 +3063,7 @@
         <v>82</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -3040,7 +3086,7 @@
         <v>88</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -3063,7 +3109,7 @@
         <v>129</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>

--- a/DataTables/Datas/Manga.xlsx
+++ b/DataTables/Datas/Manga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\MyProject\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CCD4A9-9E95-4CB8-B79C-532245337B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52211AB2-D0D7-4BD7-8B4C-DD4C08DDD7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="211">
   <si>
     <t>ID</t>
   </si>
@@ -148,9 +148,6 @@
     <t>TbRewardID</t>
   </si>
   <si>
-    <t>MangaTicketNum</t>
-  </si>
-  <si>
     <t>漫画副本id</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>小节奖励</t>
   </si>
   <si>
-    <t>消耗漫画卡数量</t>
-  </si>
-  <si>
     <t>条件类型</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>角色1漫画1小节2描述</t>
   </si>
   <si>
-    <t>角色1漫画1小节2</t>
-  </si>
-  <si>
     <t>1_1</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
   </si>
   <si>
     <t>角色1漫画1小节1描述</t>
-  </si>
-  <si>
-    <t>角色1漫画1小节1</t>
   </si>
   <si>
     <t>1_1_1</t>
@@ -353,19 +341,10 @@
     <t>第10页</t>
   </si>
   <si>
-    <t>事件类型
-(1选项,2战斗)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Option</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>选项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>第14页</t>
   </si>
   <si>
@@ -408,15 +387,7 @@
     <t>1_1_1_20</t>
   </si>
   <si>
-    <t>选项1,选项2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>第7页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -524,10 +495,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Next</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -558,9 +525,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>角色1漫画1小节3</t>
-  </si>
-  <si>
     <t>Sprite/Icon3.png</t>
   </si>
   <si>
@@ -607,41 +571,25 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1_1_2_11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用结束尾页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_3_11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageRange</t>
+  </si>
+  <si>
     <t>c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>结束:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>End</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1_2_11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用结束尾页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1_3_11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PageRange</t>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>页面范围</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -765,6 +713,95 @@
   </si>
   <si>
     <t>Texture/page4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/endPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项文本1,选项文本2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项跳转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗体力数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项回溯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptionSkip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptionEnd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptionBack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件类型
+(1结束 2选项 3战斗)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndSkip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束跳转图标
+1洛基
+2小狐狸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/EndSkip_LuoJi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/EndSkip_XiaoHuLi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点2</t>
+  </si>
+  <si>
+    <t>节点3</t>
+  </si>
+  <si>
+    <t>MangaTicketNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1352,13 +1389,13 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -1401,7 +1438,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -1410,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>25</v>
@@ -1528,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -1584,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
@@ -1610,7 +1647,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1639,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>8</v>
@@ -1651,7 +1688,7 @@
         <v>29</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>32</v>
@@ -1666,10 +1703,10 @@
         <v>35</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>26</v>
@@ -1704,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>3</v>
@@ -1719,16 +1756,16 @@
         <v>3</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
@@ -1769,7 +1806,7 @@
         <v>23</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>23</v>
@@ -1786,166 +1823,166 @@
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I5" s="9">
         <v>10</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K5" s="8">
         <v>1</v>
       </c>
       <c r="L5" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I6" s="9">
         <v>15</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K6" s="8">
         <v>2</v>
       </c>
       <c r="L6" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="9" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="8">
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I7" s="9">
         <v>15</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="K7" s="8">
         <v>3</v>
       </c>
       <c r="L7" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1956,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D702866-1419-4D9D-9483-A098B7763352}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1968,15 +2005,17 @@
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1984,37 +2023,43 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2034,25 +2079,31 @@
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2072,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>6</v>
@@ -2084,136 +2135,154 @@
         <v>6</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>159</v>
+        <v>68</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7" s="8">
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="9">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8">
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2221,22 +2290,24 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" s="8">
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -2244,99 +2315,109 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10" s="8">
         <v>6</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>116</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" s="8">
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12" s="8">
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="9">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13" s="8">
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -2344,22 +2425,24 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8">
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -2367,22 +2450,24 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" s="8">
         <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -2392,45 +2477,51 @@
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8">
         <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8">
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -2438,47 +2529,51 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8">
         <v>14</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="9">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8">
         <v>15</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -2486,22 +2581,24 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D20" s="8">
         <v>16</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2511,45 +2608,51 @@
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D21" s="8">
         <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="K21" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D22" s="8">
         <v>18</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2557,22 +2660,24 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D23" s="8">
         <v>19</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2580,22 +2685,24 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D24" s="8">
         <v>20</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -2603,21 +2710,25 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D25" s="8">
         <v>21</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="G25" s="9">
         <v>1</v>
       </c>
@@ -2625,69 +2736,77 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="L25" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D26" s="12">
         <v>1</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D27" s="12">
         <v>2</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D28" s="12">
         <v>3</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -2695,49 +2814,53 @@
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="D29" s="12">
         <v>4</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13">
-        <v>2</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G29" s="13">
+        <v>3</v>
+      </c>
+      <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="13">
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13">
         <v>1</v>
       </c>
-      <c r="L29" s="13"/>
-    </row>
-    <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D30" s="12">
         <v>5</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -2745,22 +2868,24 @@
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
-    </row>
-    <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D31" s="12">
         <v>6</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -2768,22 +2893,24 @@
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
-    </row>
-    <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D32" s="12">
         <v>7</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -2791,22 +2918,24 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D33" s="12">
         <v>8</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -2814,22 +2943,24 @@
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D34" s="12">
         <v>9</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -2837,22 +2968,24 @@
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D35" s="12">
         <v>10</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -2860,21 +2993,25 @@
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
-    </row>
-    <row r="36" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D36" s="12">
         <v>11</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F36" s="12"/>
+        <v>149</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>189</v>
+      </c>
       <c r="G36" s="13">
         <v>1</v>
       </c>
@@ -2882,69 +3019,77 @@
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-    </row>
-    <row r="37" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="L36" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>155</v>
       </c>
       <c r="D37" s="16">
         <v>1</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
-      <c r="L37" s="16"/>
-    </row>
-    <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D38" s="16">
         <v>2</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
-      <c r="L38" s="16"/>
-    </row>
-    <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="16"/>
+    </row>
+    <row r="39" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D39" s="16">
         <v>3</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
@@ -2952,49 +3097,53 @@
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D40" s="16">
         <v>4</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17">
-        <v>2</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G40" s="17">
+        <v>3</v>
+      </c>
+      <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="17">
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17">
         <v>1</v>
       </c>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D41" s="16">
         <v>5</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -3002,22 +3151,24 @@
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D42" s="16">
         <v>6</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -3025,22 +3176,24 @@
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
-    </row>
-    <row r="43" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+    </row>
+    <row r="43" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D43" s="16">
         <v>7</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -3048,22 +3201,24 @@
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
-    </row>
-    <row r="44" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+    </row>
+    <row r="44" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D44" s="16">
         <v>8</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -3071,22 +3226,24 @@
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
-    </row>
-    <row r="45" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D45" s="16">
         <v>9</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -3094,22 +3251,24 @@
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
-    </row>
-    <row r="46" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+    </row>
+    <row r="46" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D46" s="16">
         <v>10</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -3117,21 +3276,25 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
-    </row>
-    <row r="47" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D47" s="16">
         <v>11</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>189</v>
+      </c>
       <c r="G47" s="17">
         <v>1</v>
       </c>
@@ -3139,7 +3302,11 @@
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
+      <c r="L47" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataTables/Datas/Manga.xlsx
+++ b/DataTables/Datas/Manga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\MyProject\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52211AB2-D0D7-4BD7-8B4C-DD4C08DDD7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250ADD2E-2F92-46A8-8A6E-352A0F20EFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="216">
   <si>
     <t>ID</t>
   </si>
@@ -804,12 +804,32 @@
     <t>6,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>AllAwardCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,7 +1335,7 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
@@ -1328,7 +1348,7 @@
     <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1398,7 +1418,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1433,7 +1453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="str">
         <f t="shared" ref="B5:B10" si="0">D5&amp;"_"&amp;C5</f>
@@ -1496,7 +1516,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1524,7 +1544,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1552,7 +1572,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1580,7 +1600,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1608,7 +1628,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1644,13 +1664,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EA9C67-D7B9-4065-A796-176DFD320906}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -1663,12 +1683,12 @@
     <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.6">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1708,17 +1728,20 @@
       <c r="M1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15.6">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1758,17 +1781,20 @@
       <c r="M2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q2" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,7 +1835,7 @@
         <v>152</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>23</v>
@@ -1817,8 +1843,11 @@
       <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="Q3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -1859,16 +1888,19 @@
         <v>153</v>
       </c>
       <c r="N4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15">
       <c r="A5" s="15"/>
       <c r="B5" s="9" t="s">
         <v>51</v>
@@ -1906,8 +1938,11 @@
       <c r="M5" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="N5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15">
       <c r="A6" s="15"/>
       <c r="B6" s="9" t="s">
         <v>49</v>
@@ -1945,8 +1980,11 @@
       <c r="M6" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15">
       <c r="A7" s="15"/>
       <c r="B7" s="9" t="s">
         <v>131</v>
@@ -1983,6 +2021,9 @@
       </c>
       <c r="M7" s="8" t="s">
         <v>155</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1995,11 +2036,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D702866-1419-4D9D-9483-A098B7763352}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -2015,7 +2056,7 @@
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2056,10 +2097,10 @@
         <v>130</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2103,7 +2144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +2188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="46.8">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2191,7 +2232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15">
       <c r="B5" s="8" t="s">
         <v>59</v>
       </c>
@@ -2216,7 +2257,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15">
       <c r="B6" s="8" t="s">
         <v>60</v>
       </c>
@@ -2241,7 +2282,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15">
       <c r="B7" s="8" t="s">
         <v>61</v>
       </c>
@@ -2268,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15">
       <c r="B8" s="8" t="s">
         <v>62</v>
       </c>
@@ -2293,7 +2334,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15">
       <c r="B9" s="8" t="s">
         <v>73</v>
       </c>
@@ -2318,7 +2359,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15">
       <c r="B10" s="8" t="s">
         <v>74</v>
       </c>
@@ -2349,7 +2390,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15">
       <c r="B11" s="8" t="s">
         <v>75</v>
       </c>
@@ -2376,7 +2417,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15">
       <c r="B12" s="8" t="s">
         <v>76</v>
       </c>
@@ -2403,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15">
       <c r="B13" s="8" t="s">
         <v>80</v>
       </c>
@@ -2428,7 +2469,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15">
       <c r="B14" s="8" t="s">
         <v>81</v>
       </c>
@@ -2453,7 +2494,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15">
       <c r="B15" s="8" t="s">
         <v>82</v>
       </c>
@@ -2480,7 +2521,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15">
       <c r="B16" s="8" t="s">
         <v>83</v>
       </c>
@@ -2507,7 +2548,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="15">
       <c r="B17" s="8" t="s">
         <v>93</v>
       </c>
@@ -2532,7 +2573,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="15">
       <c r="B18" s="8" t="s">
         <v>94</v>
       </c>
@@ -2559,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="15">
       <c r="B19" s="8" t="s">
         <v>95</v>
       </c>
@@ -2584,7 +2625,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="15">
       <c r="B20" s="8" t="s">
         <v>96</v>
       </c>
@@ -2611,7 +2652,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="15">
       <c r="B21" s="8" t="s">
         <v>97</v>
       </c>
@@ -2638,7 +2679,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="15">
       <c r="B22" s="8" t="s">
         <v>98</v>
       </c>
@@ -2663,7 +2704,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="15">
       <c r="B23" s="8" t="s">
         <v>99</v>
       </c>
@@ -2688,7 +2729,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="15">
       <c r="B24" s="8" t="s">
         <v>100</v>
       </c>
@@ -2713,7 +2754,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="15">
       <c r="B25" s="8" t="s">
         <v>146</v>
       </c>
@@ -2742,7 +2783,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="15">
       <c r="B26" s="12" t="s">
         <v>109</v>
       </c>
@@ -2767,7 +2808,7 @@
       <c r="M26" s="13"/>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="15">
       <c r="B27" s="12" t="s">
         <v>110</v>
       </c>
@@ -2792,7 +2833,7 @@
       <c r="M27" s="13"/>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="15">
       <c r="B28" s="12" t="s">
         <v>111</v>
       </c>
@@ -2817,7 +2858,7 @@
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
     </row>
-    <row r="29" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="15">
       <c r="B29" s="12" t="s">
         <v>112</v>
       </c>
@@ -2846,7 +2887,7 @@
       </c>
       <c r="N29" s="13"/>
     </row>
-    <row r="30" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="15">
       <c r="B30" s="12" t="s">
         <v>113</v>
       </c>
@@ -2871,7 +2912,7 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="15">
       <c r="B31" s="12" t="s">
         <v>114</v>
       </c>
@@ -2896,7 +2937,7 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="15">
       <c r="B32" s="12" t="s">
         <v>115</v>
       </c>
@@ -2921,7 +2962,7 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="15">
       <c r="B33" s="12" t="s">
         <v>116</v>
       </c>
@@ -2946,7 +2987,7 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="15">
       <c r="B34" s="12" t="s">
         <v>117</v>
       </c>
@@ -2971,7 +3012,7 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="15">
       <c r="B35" s="12" t="s">
         <v>119</v>
       </c>
@@ -2996,7 +3037,7 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="15">
       <c r="B36" s="12" t="s">
         <v>148</v>
       </c>
@@ -3025,7 +3066,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="15">
       <c r="B37" s="16" t="s">
         <v>135</v>
       </c>
@@ -3050,7 +3091,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="16"/>
     </row>
-    <row r="38" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="15">
       <c r="B38" s="16" t="s">
         <v>136</v>
       </c>
@@ -3075,7 +3116,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="16"/>
     </row>
-    <row r="39" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="15">
       <c r="B39" s="16" t="s">
         <v>137</v>
       </c>
@@ -3100,7 +3141,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="15">
       <c r="B40" s="16" t="s">
         <v>138</v>
       </c>
@@ -3129,7 +3170,7 @@
       </c>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="15">
       <c r="B41" s="16" t="s">
         <v>139</v>
       </c>
@@ -3154,7 +3195,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="15">
       <c r="B42" s="16" t="s">
         <v>140</v>
       </c>
@@ -3179,7 +3220,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="15">
       <c r="B43" s="16" t="s">
         <v>141</v>
       </c>
@@ -3204,7 +3245,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="15">
       <c r="B44" s="16" t="s">
         <v>142</v>
       </c>
@@ -3229,7 +3270,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="15">
       <c r="B45" s="16" t="s">
         <v>143</v>
       </c>
@@ -3254,7 +3295,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="15">
       <c r="B46" s="16" t="s">
         <v>144</v>
       </c>
@@ -3279,7 +3320,7 @@
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="15">
       <c r="B47" s="16" t="s">
         <v>150</v>
       </c>

--- a/DataTables/Datas/Manga.xlsx
+++ b/DataTables/Datas/Manga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\MyProject\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250ADD2E-2F92-46A8-8A6E-352A0F20EFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF20720F-85F3-4D24-B0FE-C4DE03F160D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="217">
   <si>
     <t>ID</t>
   </si>
@@ -571,10 +571,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1_1_2_11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>通用结束尾页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -822,6 +818,14 @@
   </si>
   <si>
     <t>AwardCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第10页| 通用结束尾页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1667,7 +1671,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1723,13 +1727,13 @@
         <v>35</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>26</v>
@@ -1782,7 +1786,7 @@
         <v>128</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>128</v>
@@ -1832,10 +1836,10 @@
         <v>23</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>23</v>
@@ -1882,13 +1886,13 @@
         <v>43</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>44</v>
@@ -1915,7 +1919,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>50</v>
@@ -1936,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N5" s="8">
         <v>3</v>
@@ -1957,7 +1961,7 @@
         <v>47</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>47</v>
@@ -1978,7 +1982,7 @@
         <v>10</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="N6" s="8">
         <v>0</v>
@@ -1999,7 +2003,7 @@
         <v>133</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>132</v>
@@ -2020,7 +2024,7 @@
         <v>10</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N7" s="8">
         <v>0</v>
@@ -2034,10 +2038,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D702866-1419-4D9D-9483-A098B7763352}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="2" sqref="G1:G1048576 A25:XFD25 A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2082,22 +2087,22 @@
         <v>86</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15">
@@ -2208,22 +2213,22 @@
         <v>68</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>118</v>
@@ -2246,7 +2251,7 @@
         <v>69</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -2271,7 +2276,7 @@
         <v>70</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -2296,7 +2301,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -2323,7 +2328,7 @@
         <v>72</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2348,7 +2353,7 @@
         <v>77</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -2373,13 +2378,13 @@
         <v>106</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" s="9">
         <v>2</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>108</v>
@@ -2404,14 +2409,14 @@
         <v>107</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -2431,7 +2436,7 @@
         <v>78</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -2458,7 +2463,7 @@
         <v>84</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -2483,7 +2488,7 @@
         <v>85</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -2508,7 +2513,7 @@
         <v>103</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -2535,14 +2540,14 @@
         <v>104</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -2562,7 +2567,7 @@
         <v>105</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -2587,7 +2592,7 @@
         <v>87</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -2614,7 +2619,7 @@
         <v>88</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -2639,7 +2644,7 @@
         <v>102</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2666,14 +2671,14 @@
         <v>89</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -2693,7 +2698,7 @@
         <v>90</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2718,7 +2723,7 @@
         <v>91</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2743,7 +2748,7 @@
         <v>92</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -2768,7 +2773,7 @@
         <v>147</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G25" s="9">
         <v>1</v>
@@ -2778,7 +2783,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -2797,7 +2802,7 @@
         <v>69</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -2822,7 +2827,7 @@
         <v>70</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -2847,7 +2852,7 @@
         <v>71</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -2872,7 +2877,7 @@
         <v>72</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G29" s="13">
         <v>3</v>
@@ -2901,7 +2906,7 @@
         <v>77</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -2926,7 +2931,7 @@
         <v>106</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -2951,7 +2956,7 @@
         <v>101</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -2976,7 +2981,7 @@
         <v>78</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -3001,7 +3006,7 @@
         <v>84</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -3023,61 +3028,61 @@
         <v>10</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" s="13"/>
+        <v>184</v>
+      </c>
+      <c r="G35" s="13">
+        <v>1</v>
+      </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="L35" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
     </row>
     <row r="36" spans="2:14" ht="15">
-      <c r="B36" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="12">
-        <v>11</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="B36" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="16">
         <v>1</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
+      <c r="E36" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="16"/>
     </row>
     <row r="37" spans="2:14" ht="15">
       <c r="B37" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D37" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>180</v>
@@ -3093,19 +3098,19 @@
     </row>
     <row r="38" spans="2:14" ht="15">
       <c r="B38" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D38" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
@@ -3114,74 +3119,74 @@
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
-      <c r="N38" s="16"/>
+      <c r="N38" s="17"/>
     </row>
     <row r="39" spans="2:14" ht="15">
       <c r="B39" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D39" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G39" s="17"/>
+      <c r="G39" s="17">
+        <v>3</v>
+      </c>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
+      <c r="M39" s="17">
+        <v>1</v>
+      </c>
       <c r="N39" s="17"/>
     </row>
     <row r="40" spans="2:14" ht="15">
       <c r="B40" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D40" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="G40" s="17">
-        <v>3</v>
-      </c>
+      <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
-      <c r="M40" s="17">
-        <v>1</v>
-      </c>
+      <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
     <row r="41" spans="2:14" ht="15">
       <c r="B41" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D41" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>174</v>
@@ -3197,19 +3202,19 @@
     </row>
     <row r="42" spans="2:14" ht="15">
       <c r="B42" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D42" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -3222,19 +3227,19 @@
     </row>
     <row r="43" spans="2:14" ht="15">
       <c r="B43" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D43" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -3247,19 +3252,19 @@
     </row>
     <row r="44" spans="2:14" ht="15">
       <c r="B44" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D44" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -3272,16 +3277,16 @@
     </row>
     <row r="45" spans="2:14" ht="15">
       <c r="B45" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D45" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>187</v>
@@ -3297,57 +3302,32 @@
     </row>
     <row r="46" spans="2:14" ht="15">
       <c r="B46" s="16" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D46" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="G46" s="17"/>
+      <c r="G46" s="17">
+        <v>1</v>
+      </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
+      <c r="L46" s="17" t="s">
+        <v>202</v>
+      </c>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
-    </row>
-    <row r="47" spans="2:14" ht="15">
-      <c r="B47" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="16">
-        <v>11</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="G47" s="17">
-        <v>1</v>
-      </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
